--- a/data/trans_dic/P16A06-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16A06-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,94; 3,64</t>
+          <t>1,08; 3,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,92; 4,52</t>
+          <t>0,91; 4,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,34; 4,75</t>
+          <t>1,34; 5,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,52; 7,24</t>
+          <t>3,5; 7,33</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,39; 5,43</t>
+          <t>1,49; 5,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,9; 7,08</t>
+          <t>1,84; 6,85</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,48; 5,45</t>
+          <t>1,65; 5,75</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,16; 7,83</t>
+          <t>4,22; 8,14</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,52; 3,68</t>
+          <t>1,51; 3,69</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,74; 4,44</t>
+          <t>1,59; 4,6</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,77; 4,34</t>
+          <t>1,76; 4,27</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,3; 7,08</t>
+          <t>4,24; 6,89</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,78; 4,14</t>
+          <t>0,79; 4,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,98; 4,56</t>
+          <t>0,97; 4,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,88; 3,98</t>
+          <t>1,04; 4,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,76; 6,35</t>
+          <t>2,72; 6,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,77; 3,72</t>
+          <t>0,8; 3,91</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,88; 3,98</t>
+          <t>0,89; 4,25</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,84; 5,63</t>
+          <t>1,84; 5,89</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,0; 10,24</t>
+          <t>6,06; 10,66</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,06; 3,17</t>
+          <t>1,05; 3,3</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,23; 3,58</t>
+          <t>1,22; 3,91</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,7; 4,22</t>
+          <t>1,73; 4,13</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,77; 7,72</t>
+          <t>4,67; 7,58</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,63; 2,57</t>
+          <t>0,65; 2,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,85; 4,98</t>
+          <t>1,91; 4,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,28; 4,11</t>
+          <t>1,31; 4,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,2; 6,5</t>
+          <t>1,24; 6,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,68; 7,86</t>
+          <t>1,71; 7,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,81; 7,95</t>
+          <t>2,46; 8,08</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,71; 13,9</t>
+          <t>5,22; 14,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,96; 16,6</t>
+          <t>9,13; 16,62</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,21; 3,23</t>
+          <t>1,17; 3,21</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,47; 5,12</t>
+          <t>2,57; 5,22</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,72; 5,77</t>
+          <t>2,63; 5,74</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,14; 8,28</t>
+          <t>2,16; 8,37</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,61; 3,38</t>
+          <t>1,65; 3,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,96; 2,62</t>
+          <t>0,93; 2,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,18; 4,33</t>
+          <t>2,2; 4,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,77; 7,41</t>
+          <t>4,78; 7,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,3; 5,23</t>
+          <t>2,1; 4,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,81; 5,93</t>
+          <t>2,84; 5,98</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,07; 7,02</t>
+          <t>4,02; 7,27</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,04; 7,92</t>
+          <t>3,24; 7,92</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,13; 3,57</t>
+          <t>2,15; 3,63</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,98; 3,56</t>
+          <t>1,94; 3,59</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,28; 5,08</t>
+          <t>3,3; 5,15</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,96; 7,05</t>
+          <t>4,11; 6,99</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,63; 5,44</t>
+          <t>1,5; 5,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,14; 3,68</t>
+          <t>1,17; 3,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,86; 4,66</t>
+          <t>1,86; 4,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,91; 7,9</t>
+          <t>3,98; 7,84</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,28; 5,63</t>
+          <t>2,31; 5,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,58; 10,75</t>
+          <t>6,56; 10,78</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,9; 12,53</t>
+          <t>7,82; 12,25</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>10,79; 17,38</t>
+          <t>10,39; 17,08</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,39; 4,79</t>
+          <t>2,36; 4,76</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>4,81; 7,42</t>
+          <t>4,81; 7,73</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>5,6; 8,29</t>
+          <t>5,46; 8,24</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>9,27; 13,26</t>
+          <t>9,16; 13,12</t>
         </is>
       </c>
     </row>
@@ -1434,52 +1435,52 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,92</t>
+          <t>0,0; 2,62</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,24; 9,71</t>
+          <t>1,23; 11,24</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>4,58; 7,09</t>
+          <t>4,66; 7,28</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>6,84; 10,5</t>
+          <t>6,92; 10,58</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>8,36; 12,3</t>
+          <t>8,45; 12,38</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>11,12; 14,86</t>
+          <t>11,07; 14,77</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>3,68; 5,8</t>
+          <t>3,64; 5,68</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>5,55; 8,54</t>
+          <t>5,5; 8,37</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>6,76; 10,01</t>
+          <t>6,68; 10,08</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>8,9; 12,56</t>
+          <t>8,95; 12,35</t>
         </is>
       </c>
     </row>
@@ -1564,52 +1565,52 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,57; 2,54</t>
+          <t>1,55; 2,46</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,54; 2,62</t>
+          <t>1,56; 2,6</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,14; 3,22</t>
+          <t>2,15; 3,29</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,76; 5,78</t>
+          <t>3,9; 5,78</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,51; 4,95</t>
+          <t>3,52; 4,91</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,55; 7,12</t>
+          <t>5,41; 7,16</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,67; 8,56</t>
+          <t>6,67; 8,47</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>7,89; 10,99</t>
+          <t>8,02; 11,0</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,67; 3,54</t>
+          <t>2,65; 3,51</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>3,68; 4,68</t>
+          <t>3,73; 4,71</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1619,7 +1620,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>6,4; 8,22</t>
+          <t>6,46; 8,24</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido pastillas para dormir en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>9586</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>9117</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>11455</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>25960</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>9305</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>11559</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>10841</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>25815</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>18891</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>20676</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>22297</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>51775</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>5137; 18187</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3987; 19368</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>5734; 21804</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>17702; 37038</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>4583; 16277</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>5792; 21532</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>5714; 19943</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>18877; 36429</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>11778; 28813</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>11983; 34598</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>13643; 33139</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>40367; 65644</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>7384</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>9307</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>8013</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>19288</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>7403</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>6974</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>12539</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>30593</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>14786</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>16281</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>20552</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>49881</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>2910; 15812</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>4048; 19395</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>3929; 15634</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>12295; 28669</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2972; 14558</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>2999; 14261</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>6841; 21917</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>23180; 40771</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>7722; 24414</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>9184; 29339</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>12994; 30975</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>38968; 63273</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>7781</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>19761</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>12565</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>24960</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>6707</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>12450</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>14707</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>20579</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>14488</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>32211</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>27272</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>45540</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>3518; 14958</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>11960; 31176</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>6843; 21145</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>8294; 43448</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2870; 13056</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>6346; 20838</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>8676; 24265</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>15242; 27744</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>8330; 22824</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>22700; 46152</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>18064; 39490</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>18041; 69873</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>29880</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>18809</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>36799</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>61953</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>24292</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>32410</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>44957</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>56818</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>54172</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>51218</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>81756</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>118771</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>20444; 42061</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>10795; 30102</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>25341; 51663</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>49470; 75161</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>15027; 34036</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>21781; 45767</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>33194; 60009</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>31667; 77430</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>41902; 70850</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>37342; 68982</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>65149; 101804</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>82656; 140656</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>10293</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>11018</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>19005</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>26685</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>21064</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>65151</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>73282</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>120962</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>31356</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>76169</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>92286</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>147647</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>5233; 18875</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>5970; 20110</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>11573; 28068</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>18833; 37139</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>13128; 31414</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>49785; 81755</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>57752; 90406</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>87143; 143238</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>21674; 43748</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>61011; 97967</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>74251; 111969</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>120242; 172172</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2187</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>8094</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>71902</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>94415</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>110155</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>97860</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>71902</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>94415</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>112342</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>105954</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1864</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1925</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 7526</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>2968; 27025</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>58203; 90962</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>76438; 116906</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>91411; 133988</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>84118; 112297</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>56309; 87827</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>75478; 114828</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>91495; 138038</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>89601; 123561</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>643</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>862</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>64924</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>68011</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>90024</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>166941</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>140672</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>222959</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>266481</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>352627</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>205596</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>290970</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>356505</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>519568</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>50605; 80430</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>53078; 88872</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>72807; 111241</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>131756; 195115</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>119030; 165976</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>191227; 253119</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>235729; 299234</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>286637; 393183</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>176279; 233182</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>259227; 327175</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>319359; 397201</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>448933; 572615</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P16A06-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16A06-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
